--- a/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BD9031-3982-467E-9B7B-969F91BF59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C84354-FA63-4153-B708-0E97BDD9B211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="364">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1347,10 +1347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆠㄧㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hang5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1367,38 +1363,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>te7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1407,22 +1383,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phoo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1447,14 +1411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>huat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1467,10 +1423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,66 +1435,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄅㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄨㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siann1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phang1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄆㄤ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆠㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tak4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1563,26 +1479,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siong3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1595,10 +1495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>na2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1623,14 +1519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kho2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1655,10 +1543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>un5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1671,58 +1555,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄤ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>khong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄎㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ia7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lam5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1735,10 +1587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pak4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1759,18 +1607,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iah8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1791,7 +1631,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄚ˫</t>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄚ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1799,7 +1803,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="76">
+  <fonts count="77">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2329,6 +2333,13 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2531,7 +2542,7 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2836,6 +2847,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3530,7 +3544,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3630,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3744,22 +3758,22 @@
         <v>250</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="89" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="H4" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>260</v>
-      </c>
       <c r="J4" s="89" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -3779,7 +3793,7 @@
       <c r="D5" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="105" t="s">
         <v>213</v>
       </c>
       <c r="F5" s="72" t="s">
@@ -3812,25 +3826,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="94" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="K6" s="94"/>
       <c r="L6" s="94"/>
@@ -3868,41 +3882,41 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="89" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
       <c r="H8" s="89" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K8" s="89"/>
       <c r="L8" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="N8" s="89" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="O8" s="89" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="P8" s="89"/>
       <c r="Q8" s="89" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="R8" s="89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="100"/>
@@ -3966,41 +3980,41 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="94" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="F10" s="94"/>
       <c r="G10" s="94"/>
       <c r="H10" s="94" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="I10" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K10" s="94"/>
       <c r="L10" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M10" s="94" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N10" s="94" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="O10" s="94" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P10" s="94"/>
       <c r="Q10" s="94" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="100"/>
@@ -4030,45 +4044,45 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="89" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H12" s="89" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K12" s="89"/>
       <c r="L12" s="89" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M12" s="89" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="N12" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="P12" s="89" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="R12" s="89" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="100"/>
@@ -4088,7 +4102,7 @@
       <c r="F13" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="105" t="s">
         <v>213</v>
       </c>
       <c r="H13" s="72" t="s">
@@ -4109,7 +4123,7 @@
       <c r="M13" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="N13" s="72" t="s">
+      <c r="N13" s="105" t="s">
         <v>222</v>
       </c>
       <c r="O13" s="72" t="s">
@@ -4131,45 +4145,45 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="94" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E14" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="K14" s="94"/>
       <c r="L14" s="94" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M14" s="94" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="N14" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="O14" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="94" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="R14" s="94" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4200,35 +4214,35 @@
       <c r="C16" s="52"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="H16" s="89"/>
       <c r="I16" s="89" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="J16" s="89"/>
       <c r="K16" s="89" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="L16" s="89"/>
       <c r="M16" s="89" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="N16" s="89"/>
       <c r="O16" s="89" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="P16" s="89" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="89" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="R16" s="89"/>
       <c r="S16" s="53"/>
@@ -4243,7 +4257,7 @@
       <c r="D17" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="105" t="s">
         <v>222</v>
       </c>
       <c r="F17" s="72" t="s">
@@ -4255,7 +4269,7 @@
       <c r="H17" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="105" t="s">
         <v>224</v>
       </c>
       <c r="J17" s="72" t="s">
@@ -4267,7 +4281,7 @@
       <c r="L17" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="M17" s="72" t="s">
+      <c r="M17" s="105" t="s">
         <v>226</v>
       </c>
       <c r="N17" s="72" t="s">
@@ -4293,35 +4307,35 @@
       <c r="C18" s="52"/>
       <c r="D18" s="94"/>
       <c r="E18" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H18" s="94"/>
       <c r="I18" s="94" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="L18" s="94"/>
       <c r="M18" s="94" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="N18" s="94"/>
       <c r="O18" s="94" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P18" s="94" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="Q18" s="94" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="R18" s="94"/>
       <c r="S18" s="58"/>
@@ -4352,45 +4366,45 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="89" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F20" s="89" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G20" s="89"/>
       <c r="H20" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K20" s="89" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="L20" s="89" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="M20" s="89" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="N20" s="89" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="R20" s="89" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
@@ -4437,7 +4451,7 @@
       <c r="O21" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="P21" s="72" t="s">
+      <c r="P21" s="105" t="s">
         <v>222</v>
       </c>
       <c r="Q21" s="72" t="s">
@@ -4453,45 +4467,45 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="94" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F22" s="94" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G22" s="94"/>
       <c r="H22" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I22" s="94" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="K22" s="94" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="L22" s="94" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="M22" s="94" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="O22" s="94"/>
       <c r="P22" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="R22" s="94" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4521,42 +4535,42 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="89" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="H24" s="89" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="I24" s="89"/>
       <c r="J24" s="89" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="K24" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L24" s="89" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M24" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N24" s="89" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="O24" s="89" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="P24" s="89" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Q24" s="89" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="53"/>
@@ -4595,7 +4609,7 @@
       <c r="L25" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="M25" s="72" t="s">
+      <c r="M25" s="105" t="s">
         <v>222</v>
       </c>
       <c r="N25" s="72" t="s">
@@ -4620,48 +4634,48 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="94" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="E26" s="94"/>
       <c r="F26" s="94" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="G26" s="94" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="H26" s="94" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="I26" s="94"/>
       <c r="J26" s="94" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="K26" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L26" s="94" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="M26" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="N26" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="O26" s="94" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="P26" s="94" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="94" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="R26" s="94"/>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
         <f xml:space="preserve"> MID($N$22,3,1)</f>
-        <v>˙</v>
+        <v>ˉ</v>
       </c>
       <c r="V26" s="69"/>
     </row>
@@ -4694,45 +4708,45 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="89" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="F28" s="89" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H28" s="89" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="I28" s="89" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="J28" s="89" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="K28" s="89"/>
       <c r="L28" s="89" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M28" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="N28" s="89" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="89" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="Q28" s="89" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="R28" s="89" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="1" t="e">
@@ -4756,16 +4770,16 @@
       <c r="F29" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="105" t="s">
         <v>222</v>
       </c>
       <c r="H29" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="105" t="s">
         <v>207</v>
       </c>
       <c r="K29" s="72" t="s">
@@ -4803,45 +4817,45 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="94" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="H30" s="94" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I30" s="94" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="K30" s="94"/>
       <c r="L30" s="94" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="M30" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="N30" s="94" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="Q30" s="94" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="R30" s="94" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="1" t="s">
@@ -4874,41 +4888,41 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="89" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="J32" s="89" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="K32" s="89" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="M32" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="89"/>
       <c r="Q32" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="R32" s="89" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="S32" s="53"/>
       <c r="V32" s="69"/>
@@ -4946,7 +4960,7 @@
       <c r="L33" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="M33" s="72" t="s">
+      <c r="M33" s="105" t="s">
         <v>222</v>
       </c>
       <c r="N33" s="72" t="s">
@@ -4971,41 +4985,41 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="94" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="E34" s="94"/>
       <c r="F34" s="94" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G34" s="94" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="J34" s="94" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="K34" s="94" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="L34" s="94" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="M34" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="N34" s="94"/>
       <c r="O34" s="94"/>
       <c r="P34" s="94"/>
       <c r="Q34" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="R34" s="94" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5036,34 +5050,34 @@
       <c r="C36" s="52"/>
       <c r="D36" s="89"/>
       <c r="E36" s="89" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G36" s="89"/>
       <c r="H36" s="89"/>
       <c r="I36" s="89"/>
       <c r="J36" s="89" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M36" s="89"/>
       <c r="N36" s="89" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="O36" s="89"/>
       <c r="P36" s="89" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="89"/>
       <c r="R36" s="89" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5127,34 +5141,34 @@
       <c r="C38" s="52"/>
       <c r="D38" s="94"/>
       <c r="E38" s="94" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G38" s="94"/>
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
       <c r="J38" s="94" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="K38" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L38" s="94" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M38" s="94"/>
       <c r="N38" s="94" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="O38" s="94"/>
       <c r="P38" s="94" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="Q38" s="94"/>
       <c r="R38" s="94" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5184,41 +5198,41 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="89" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="E40" s="89"/>
       <c r="F40" s="89" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G40" s="89" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="H40" s="89"/>
       <c r="I40" s="89" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="J40" s="89"/>
       <c r="K40" s="89" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="L40" s="89" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="M40" s="89" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="N40" s="89"/>
       <c r="O40" s="89" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="P40" s="89" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="Q40" s="89" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="R40" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5250,7 +5264,7 @@
       <c r="J41" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="K41" s="72" t="s">
+      <c r="K41" s="105" t="s">
         <v>241</v>
       </c>
       <c r="L41" s="72" t="s">
@@ -5265,7 +5279,7 @@
       <c r="O41" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="P41" s="72" t="s">
+      <c r="P41" s="105" t="s">
         <v>230</v>
       </c>
       <c r="Q41" s="72" t="s">
@@ -5281,41 +5295,41 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="94" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="94" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="G42" s="94" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="H42" s="94"/>
       <c r="I42" s="94" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="J42" s="94"/>
       <c r="K42" s="94" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="M42" s="94" t="s">
         <v>356</v>
-      </c>
-      <c r="L42" s="94" t="s">
-        <v>336</v>
-      </c>
-      <c r="M42" s="94" t="s">
-        <v>338</v>
       </c>
       <c r="N42" s="94"/>
       <c r="O42" s="94" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P42" s="94" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="Q42" s="94" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="R42" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5348,29 +5362,29 @@
       <c r="E44" s="89"/>
       <c r="F44" s="89"/>
       <c r="G44" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="I44" s="89"/>
       <c r="J44" s="89" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L44" s="89"/>
       <c r="M44" s="89"/>
       <c r="N44" s="89"/>
       <c r="O44" s="89" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P44" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="Q44" s="89" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="R44" s="89"/>
       <c r="S44" s="53"/>
@@ -5437,29 +5451,29 @@
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
       <c r="G46" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="I46" s="94"/>
       <c r="J46" s="94" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="K46" s="94" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="L46" s="94"/>
       <c r="M46" s="94"/>
       <c r="N46" s="94"/>
       <c r="O46" s="94" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="P46" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="Q46" s="94" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="R46" s="94"/>
       <c r="S46" s="58"/>
@@ -5490,47 +5504,47 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E48" s="89" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="H48" s="89" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="I48" s="89" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J48" s="89" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K48" s="89"/>
       <c r="L48" s="89" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="M48" s="89" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N48" s="89" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="O48" s="89" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P48" s="89" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="Q48" s="89" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="R48" s="89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -5593,47 +5607,47 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E50" s="94" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="H50" s="94" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="I50" s="94" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="J50" s="94" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="K50" s="94"/>
       <c r="L50" s="94" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="M50" s="94" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N50" s="94" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="O50" s="94" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P50" s="94" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="Q50" s="94" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="R50" s="94" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -5663,45 +5677,45 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="89" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="E52" s="89" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="F52" s="89" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="G52" s="89"/>
       <c r="H52" s="89" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I52" s="89" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J52" s="89" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K52" s="89"/>
       <c r="L52" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="M52" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="N52" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="O52" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="P52" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q52" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="M52" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="N52" s="89" t="s">
-        <v>359</v>
-      </c>
-      <c r="O52" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="P52" s="89" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q52" s="89" t="s">
-        <v>282</v>
-      </c>
       <c r="R52" s="89" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -5764,45 +5778,45 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="94" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="F54" s="94" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="G54" s="94"/>
       <c r="H54" s="94" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="I54" s="94" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J54" s="94" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K54" s="94"/>
       <c r="L54" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="M54" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="N54" s="94" t="s">
+        <v>320</v>
+      </c>
+      <c r="O54" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="P54" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q54" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="M54" s="94" t="s">
-        <v>275</v>
-      </c>
-      <c r="N54" s="94" t="s">
-        <v>360</v>
-      </c>
-      <c r="O54" s="94" t="s">
-        <v>281</v>
-      </c>
-      <c r="P54" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q54" s="94" t="s">
-        <v>283</v>
-      </c>
       <c r="R54" s="94" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -5832,7 +5846,7 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="89" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="E56" s="89"/>
       <c r="F56" s="89"/>
@@ -5885,7 +5899,7 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="94" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="E58" s="94"/>
       <c r="F58" s="94"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C84354-FA63-4153-B708-0E97BDD9B211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4FDF6D-6DAD-4B86-BB16-749AFBA42DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="368">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1094,9 +1094,6 @@
     <t>，</t>
   </si>
   <si>
-    <t>若</t>
-  </si>
-  <si>
     <t>分</t>
   </si>
   <si>
@@ -1261,15 +1258,9 @@
     <t>聲</t>
   </si>
   <si>
-    <t>香</t>
-  </si>
-  <si>
     <t>味</t>
   </si>
   <si>
-    <t>觸</t>
-  </si>
-  <si>
     <t>福</t>
   </si>
   <si>
@@ -1300,19 +1291,10 @@
     <t>也</t>
   </si>
   <si>
-    <t>西</t>
-  </si>
-  <si>
-    <t>北</t>
-  </si>
-  <si>
     <t>維</t>
   </si>
   <si>
     <t>上</t>
-  </si>
-  <si>
-    <t>下</t>
   </si>
   <si>
     <t>亦</t>
@@ -1347,22 +1329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,10 +1337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>si3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1443,30 +1405,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siann1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ju5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1495,14 +1441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ki5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,18 +1465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sur1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,18 +1509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄚㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1607,10 +1521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iah8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1675,10 +1585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cu3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1707,10 +1613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆬ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1723,10 +1625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄆㄤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆠㄧ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1747,10 +1645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1783,19 +1677,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄒㄧㄤ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄍㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2542,7 +2564,7 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2831,6 +2853,12 @@
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2847,9 +2875,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3594,15 +3619,15 @@
         <v>167</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="95" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3615,7 +3640,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="95" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C9" s="97">
         <v>40</v>
@@ -3623,7 +3648,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="98" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C10" s="97">
         <v>15</v>
@@ -3644,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3748,32 +3773,32 @@
       <c r="R3" s="77"/>
       <c r="S3" s="74"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="99" t="s">
-        <v>245</v>
+      <c r="V3" s="101" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="89" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -3784,32 +3809,32 @@
       <c r="Q4" s="89"/>
       <c r="R4" s="89"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="100"/>
+      <c r="V4" s="102"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
         <v>1</v>
       </c>
       <c r="D5" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>206</v>
+      <c r="F5" s="100" t="s">
+        <v>351</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H5" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="I5" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>214</v>
+      <c r="J5" s="99" t="s">
+        <v>335</v>
       </c>
       <c r="K5" s="72"/>
       <c r="L5" s="72"/>
@@ -3820,31 +3845,31 @@
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="100"/>
+      <c r="V5" s="102"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="94" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="F6" s="94" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K6" s="94"/>
       <c r="L6" s="94"/>
@@ -3855,7 +3880,7 @@
       <c r="Q6" s="94"/>
       <c r="R6" s="94"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="100"/>
+      <c r="V6" s="102"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -3876,50 +3901,50 @@
       <c r="Q7" s="82"/>
       <c r="R7" s="82"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="102"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="89" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
       <c r="H8" s="89" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K8" s="89"/>
       <c r="L8" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="N8" s="89" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="O8" s="89" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P8" s="89"/>
       <c r="Q8" s="89" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="R8" s="89" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="102"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -3928,96 +3953,96 @@
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="F9" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="M9" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="N9" s="72" t="s">
+      <c r="O9" s="72" t="s">
         <v>217</v>
-      </c>
-      <c r="O9" s="72" t="s">
-        <v>218</v>
       </c>
       <c r="P9" s="72" t="s">
         <v>168</v>
       </c>
       <c r="Q9" s="72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R9" s="72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="102"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="94" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="F10" s="94"/>
       <c r="G10" s="94"/>
       <c r="H10" s="94" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="I10" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K10" s="94"/>
       <c r="L10" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M10" s="94" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N10" s="94" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="O10" s="94" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P10" s="94"/>
       <c r="Q10" s="94" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="102"/>
     </row>
     <row r="11" spans="2:22" s="83" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="80"/>
@@ -4038,54 +4063,54 @@
       <c r="Q11" s="79"/>
       <c r="R11" s="79"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="102"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="89" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="89" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="H12" s="89" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K12" s="89"/>
       <c r="L12" s="89" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M12" s="89" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N12" s="89" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="P12" s="89" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="R12" s="89" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="100"/>
+      <c r="V12" s="102"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4094,96 +4119,96 @@
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="105" t="s">
-        <v>213</v>
+      <c r="G13" s="99" t="s">
+        <v>212</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I13" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="K13" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="M13" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="M13" s="72" t="s">
+      <c r="N13" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="N13" s="105" t="s">
-        <v>222</v>
-      </c>
       <c r="O13" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P13" s="72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="R13" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="R13" s="72" t="s">
-        <v>220</v>
-      </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="103"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="94" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E14" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="94" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K14" s="94"/>
       <c r="L14" s="94" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M14" s="94" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="N14" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O14" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="94" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="R14" s="94" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4214,35 +4239,35 @@
       <c r="C16" s="52"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H16" s="89"/>
       <c r="I16" s="89" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="J16" s="89"/>
       <c r="K16" s="89" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="L16" s="89"/>
       <c r="M16" s="89" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="N16" s="89"/>
       <c r="O16" s="89" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P16" s="89" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="89" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="R16" s="89"/>
       <c r="S16" s="53"/>
@@ -4257,47 +4282,47 @@
       <c r="D17" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="72" t="s">
+      <c r="H17" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="I17" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="J17" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="K17" s="72" t="s">
-        <v>225</v>
-      </c>
       <c r="L17" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="M17" s="105" t="s">
-        <v>226</v>
+        <v>194</v>
+      </c>
+      <c r="M17" s="99" t="s">
+        <v>337</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O17" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="P17" s="72" t="s">
+      <c r="Q17" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="Q17" s="72" t="s">
-        <v>220</v>
-      </c>
       <c r="R17" s="72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S17" s="54"/>
       <c r="V17" s="69"/>
@@ -4307,35 +4332,35 @@
       <c r="C18" s="52"/>
       <c r="D18" s="94"/>
       <c r="E18" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H18" s="94"/>
       <c r="I18" s="94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="L18" s="94"/>
       <c r="M18" s="94" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="N18" s="94"/>
       <c r="O18" s="94" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P18" s="94" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="94" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="R18" s="94"/>
       <c r="S18" s="58"/>
@@ -4366,45 +4391,45 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="89" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F20" s="89" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G20" s="89"/>
       <c r="H20" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="M20" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="I20" s="89" t="s">
-        <v>265</v>
-      </c>
-      <c r="J20" s="89" t="s">
-        <v>269</v>
-      </c>
-      <c r="K20" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="L20" s="89" t="s">
-        <v>283</v>
-      </c>
-      <c r="M20" s="89" t="s">
-        <v>272</v>
-      </c>
       <c r="N20" s="89" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="89" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="R20" s="89" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
@@ -4416,49 +4441,49 @@
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="F21" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="72" t="s">
-        <v>191</v>
-      </c>
       <c r="G21" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="I21" s="72" t="s">
-        <v>194</v>
-      </c>
       <c r="J21" s="72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K21" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="L21" s="72" t="s">
-        <v>173</v>
-      </c>
       <c r="M21" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" s="72" t="s">
         <v>219</v>
-      </c>
-      <c r="N21" s="72" t="s">
-        <v>220</v>
       </c>
       <c r="O21" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="P21" s="105" t="s">
-        <v>222</v>
+      <c r="P21" s="99" t="s">
+        <v>221</v>
       </c>
       <c r="Q21" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R21" s="72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S21" s="54"/>
       <c r="V21" s="69"/>
@@ -4467,45 +4492,45 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="94" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F22" s="94" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G22" s="94"/>
       <c r="H22" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I22" s="94" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K22" s="94" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="L22" s="94" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="M22" s="94" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="O22" s="94"/>
       <c r="P22" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="R22" s="94" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4535,42 +4560,42 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="89" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="H24" s="89" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="I24" s="89"/>
       <c r="J24" s="89" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="K24" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="M24" s="89" t="s">
+        <v>343</v>
+      </c>
+      <c r="N24" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="O24" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="P24" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="89" t="s">
-        <v>265</v>
-      </c>
-      <c r="M24" s="89" t="s">
-        <v>275</v>
-      </c>
-      <c r="N24" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="O24" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="P24" s="89" t="s">
-        <v>272</v>
-      </c>
       <c r="Q24" s="89" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="53"/>
@@ -4583,46 +4608,46 @@
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="I25" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="N25" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I25" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="J25" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="L25" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="N25" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="O25" s="72" t="s">
-        <v>210</v>
-      </c>
       <c r="P25" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q25" s="72" t="s">
         <v>219</v>
-      </c>
-      <c r="Q25" s="72" t="s">
-        <v>220</v>
       </c>
       <c r="R25" s="72" t="s">
         <v>168</v>
@@ -4634,42 +4659,42 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="94" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="E26" s="94"/>
       <c r="F26" s="94" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="G26" s="94" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H26" s="94" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="I26" s="94"/>
       <c r="J26" s="94" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="K26" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L26" s="94" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M26" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N26" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="O26" s="94" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="P26" s="94" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="94" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="R26" s="94"/>
       <c r="S26" s="58"/>
@@ -4708,45 +4733,45 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="89" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F28" s="89" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="H28" s="89" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="I28" s="89" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="J28" s="89" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="K28" s="89"/>
       <c r="L28" s="89" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M28" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N28" s="89" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="89" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="89" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="R28" s="89" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="1" t="e">
@@ -4762,49 +4787,49 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F29" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="99" t="s">
+        <v>334</v>
+      </c>
+      <c r="J29" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="K29" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="M29" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="N29" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="O29" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q29" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="G29" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="I29" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="J29" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="M29" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="N29" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="O29" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="P29" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q29" s="72" t="s">
-        <v>231</v>
-      </c>
       <c r="R29" s="72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S29" s="54"/>
       <c r="U29" s="1" t="e">
@@ -4817,49 +4842,49 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="94" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H30" s="94" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="I30" s="94" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="K30" s="94"/>
       <c r="L30" s="94" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="M30" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="N30" s="94" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="Q30" s="94" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="R30" s="94" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V30" s="69"/>
     </row>
@@ -4875,7 +4900,9 @@
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
+      <c r="M31" s="79" t="s">
+        <v>354</v>
+      </c>
       <c r="N31" s="79"/>
       <c r="O31" s="79"/>
       <c r="P31" s="79"/>
@@ -4888,41 +4915,41 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="89" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="J32" s="89" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="K32" s="89" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="M32" s="89" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="89"/>
       <c r="Q32" s="89" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="R32" s="89" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="S32" s="53"/>
       <c r="V32" s="69"/>
@@ -4934,49 +4961,49 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E33" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="L33" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="N33" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="O33" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="F33" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="72" t="s">
+      <c r="P33" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q33" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="R33" s="72" t="s">
         <v>233</v>
-      </c>
-      <c r="H33" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="J33" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="K33" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="L33" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="M33" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="N33" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="O33" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="P33" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q33" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="R33" s="72" t="s">
-        <v>236</v>
       </c>
       <c r="S33" s="54"/>
       <c r="V33" s="69"/>
@@ -4985,41 +5012,41 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="94" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="E34" s="94"/>
       <c r="F34" s="94" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="G34" s="94" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="J34" s="94" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="K34" s="94" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="L34" s="94" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="M34" s="94" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="N34" s="94"/>
       <c r="O34" s="94"/>
       <c r="P34" s="94"/>
       <c r="Q34" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="R34" s="94" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5050,34 +5077,34 @@
       <c r="C36" s="52"/>
       <c r="D36" s="89"/>
       <c r="E36" s="89" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G36" s="89"/>
       <c r="H36" s="89"/>
       <c r="I36" s="89"/>
       <c r="J36" s="89" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="M36" s="89"/>
       <c r="N36" s="89" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="O36" s="89"/>
       <c r="P36" s="89" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="Q36" s="89"/>
       <c r="R36" s="89" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5092,46 +5119,46 @@
         <v>168</v>
       </c>
       <c r="E37" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="72" t="s">
-        <v>177</v>
-      </c>
       <c r="G37" s="72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H37" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I37" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="K37" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="L37" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="72" t="s">
-        <v>193</v>
-      </c>
       <c r="N37" s="72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O37" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="P37" s="72" t="s">
-        <v>237</v>
+        <v>194</v>
+      </c>
+      <c r="P37" s="99" t="s">
+        <v>355</v>
       </c>
       <c r="Q37" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="R37" s="72" t="s">
-        <v>238</v>
+        <v>194</v>
+      </c>
+      <c r="R37" s="99" t="s">
+        <v>356</v>
       </c>
       <c r="S37" s="54"/>
       <c r="V37" s="69"/>
@@ -5141,34 +5168,34 @@
       <c r="C38" s="52"/>
       <c r="D38" s="94"/>
       <c r="E38" s="94" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="G38" s="94"/>
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
       <c r="J38" s="94" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="K38" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L38" s="94" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M38" s="94"/>
       <c r="N38" s="94" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="O38" s="94"/>
       <c r="P38" s="94" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q38" s="94"/>
       <c r="R38" s="94" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5190,7 +5217,9 @@
       <c r="O39" s="79"/>
       <c r="P39" s="79"/>
       <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
+      <c r="R39" s="79" t="s">
+        <v>354</v>
+      </c>
       <c r="S39" s="85"/>
       <c r="V39" s="87"/>
     </row>
@@ -5198,41 +5227,41 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="89" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="E40" s="89"/>
       <c r="F40" s="89" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="G40" s="89" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="H40" s="89"/>
       <c r="I40" s="89" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="J40" s="89"/>
       <c r="K40" s="89" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="L40" s="89" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="M40" s="89" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="N40" s="89"/>
       <c r="O40" s="89" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="P40" s="89" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="89" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="R40" s="89" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5244,49 +5273,49 @@
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="72" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E41" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F41" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G41" s="72" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H41" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I41" s="72" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J41" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="K41" s="105" t="s">
-        <v>241</v>
+        <v>194</v>
+      </c>
+      <c r="K41" s="99" t="s">
+        <v>353</v>
       </c>
       <c r="L41" s="72" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M41" s="72" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N41" s="72" t="s">
         <v>168</v>
       </c>
       <c r="O41" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="P41" s="105" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="P41" s="99" t="s">
+        <v>334</v>
       </c>
       <c r="Q41" s="72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R41" s="72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S41" s="54"/>
       <c r="V41" s="69"/>
@@ -5295,41 +5324,41 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="94" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="94" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G42" s="94" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="H42" s="94"/>
       <c r="I42" s="94" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="J42" s="94"/>
       <c r="K42" s="94" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L42" s="94" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="M42" s="94" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="N42" s="94"/>
       <c r="O42" s="94" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="P42" s="94" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="Q42" s="94" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="R42" s="94" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5362,29 +5391,29 @@
       <c r="E44" s="89"/>
       <c r="F44" s="89"/>
       <c r="G44" s="89" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="I44" s="89"/>
       <c r="J44" s="89" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="L44" s="89"/>
       <c r="M44" s="89"/>
       <c r="N44" s="89"/>
       <c r="O44" s="89" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="P44" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Q44" s="89" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="R44" s="89"/>
       <c r="S44" s="53"/>
@@ -5397,49 +5426,49 @@
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="72" t="s">
-        <v>201</v>
-      </c>
       <c r="F45" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="I45" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="J45" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="K45" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="L45" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="G45" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="H45" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="I45" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="L45" s="72" t="s">
-        <v>193</v>
-      </c>
       <c r="M45" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N45" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="P45" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q45" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="R45" s="72" t="s">
         <v>192</v>
-      </c>
-      <c r="O45" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="P45" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q45" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="R45" s="72" t="s">
-        <v>193</v>
       </c>
       <c r="S45" s="54"/>
       <c r="V45" s="69"/>
@@ -5451,29 +5480,29 @@
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
       <c r="G46" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="I46" s="94"/>
       <c r="J46" s="94" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="K46" s="94" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="L46" s="94"/>
       <c r="M46" s="94"/>
       <c r="N46" s="94"/>
       <c r="O46" s="94" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="P46" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q46" s="94" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="R46" s="94"/>
       <c r="S46" s="58"/>
@@ -5504,47 +5533,47 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E48" s="89" t="s">
-        <v>265</v>
-      </c>
-      <c r="F48" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="G48" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="H48" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="I48" s="89" t="s">
-        <v>272</v>
-      </c>
       <c r="J48" s="89" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K48" s="89"/>
       <c r="L48" s="89" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="M48" s="89" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N48" s="89" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="O48" s="89" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="P48" s="89" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q48" s="89" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="R48" s="89" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -5556,49 +5585,49 @@
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F49" s="72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G49" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H49" s="72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I49" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="J49" s="72" t="s">
         <v>219</v>
-      </c>
-      <c r="J49" s="72" t="s">
-        <v>220</v>
       </c>
       <c r="K49" s="72" t="s">
         <v>168</v>
       </c>
       <c r="L49" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M49" s="72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N49" s="72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O49" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P49" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q49" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="Q49" s="72" t="s">
-        <v>173</v>
-      </c>
       <c r="R49" s="72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S49" s="54"/>
       <c r="V49" s="69"/>
@@ -5607,47 +5636,47 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E50" s="94" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="H50" s="94" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="I50" s="94" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="J50" s="94" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K50" s="94"/>
       <c r="L50" s="94" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="M50" s="94" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="N50" s="94" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="O50" s="94" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="P50" s="94" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="Q50" s="94" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="R50" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -5677,45 +5706,45 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="89" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E52" s="89" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="F52" s="89" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="G52" s="89"/>
       <c r="H52" s="89" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I52" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="J52" s="89" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K52" s="89"/>
       <c r="L52" s="89" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M52" s="89" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="N52" s="89" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="O52" s="89" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P52" s="89" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q52" s="89" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="R52" s="89" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -5727,49 +5756,49 @@
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E53" s="72" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="J53" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="J53" s="72" t="s">
-        <v>191</v>
-      </c>
       <c r="K53" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="M53" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="L53" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="M53" s="72" t="s">
-        <v>194</v>
-      </c>
       <c r="N53" s="72" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O53" s="72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P53" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q53" s="72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R53" s="72" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S53" s="54"/>
       <c r="V53" s="69"/>
@@ -5778,45 +5807,45 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="94" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="F54" s="94" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="G54" s="94"/>
       <c r="H54" s="94" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="I54" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J54" s="94" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K54" s="94"/>
       <c r="L54" s="94" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M54" s="94" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N54" s="94" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="O54" s="94" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="P54" s="94" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="Q54" s="94" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="R54" s="94" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -5846,7 +5875,7 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="89" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="E56" s="89"/>
       <c r="F56" s="89"/>
@@ -5872,13 +5901,13 @@
       </c>
       <c r="C57" s="52"/>
       <c r="D57" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G57" s="72"/>
       <c r="H57" s="72"/>
@@ -5899,7 +5928,7 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E58" s="94"/>
       <c r="F58" s="94"/>
@@ -6083,7 +6112,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6101,7 +6130,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="104" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -6126,7 +6155,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="103"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -6146,7 +6175,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -6168,7 +6197,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="103"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6184,7 +6213,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6206,7 +6235,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="103"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -6222,7 +6251,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -6244,7 +6273,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6260,7 +6289,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6282,7 +6311,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="104"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -6298,7 +6327,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -6321,7 +6350,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="104" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6339,7 +6368,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="I11" s="104" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -6363,7 +6392,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -6383,7 +6412,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="103"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -6403,7 +6432,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6417,7 +6446,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="103"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6437,7 +6466,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6451,7 +6480,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="103"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6471,7 +6500,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -6485,7 +6514,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="103"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -6505,7 +6534,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="104"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -6519,7 +6548,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="104"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
@@ -6558,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -6570,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -6582,7 +6611,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -6594,7 +6623,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -6606,7 +6635,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -6615,10 +6644,10 @@
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="36"/>
       <c r="J24" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K24" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -6630,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -6642,7 +6671,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -6794,13 +6823,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>83</v>
@@ -6864,13 +6893,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>94</v>
@@ -6931,13 +6960,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>105</v>
@@ -6998,13 +7027,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>116</v>
@@ -7065,13 +7094,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>128</v>

--- a/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4FDF6D-6DAD-4B86-BB16-749AFBA42DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A49C9C-36BF-4445-A8BF-C02F2371DEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1405,10 +1405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1521,14 +1517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iah8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚㆷ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tan6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1621,10 +1609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㆩˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆠㄧ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1818,6 +1802,22 @@
   </si>
   <si>
     <t>ㄏㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆻ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3669,9 +3669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -3783,13 +3781,13 @@
         <v>244</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>245</v>
@@ -3798,7 +3796,7 @@
         <v>246</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -3822,7 +3820,7 @@
         <v>212</v>
       </c>
       <c r="F5" s="100" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G5" s="72" t="s">
         <v>198</v>
@@ -3834,7 +3832,7 @@
         <v>170</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K5" s="72"/>
       <c r="L5" s="72"/>
@@ -3851,25 +3849,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="94" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="94" t="s">
-        <v>340</v>
-      </c>
-      <c r="F6" s="94" t="s">
-        <v>358</v>
-      </c>
-      <c r="G6" s="94" t="s">
-        <v>306</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>307</v>
-      </c>
       <c r="I6" s="94" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K6" s="94"/>
       <c r="L6" s="94"/>
@@ -3910,7 +3908,7 @@
         <v>247</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
@@ -3931,7 +3929,7 @@
         <v>254</v>
       </c>
       <c r="N8" s="89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O8" s="89" t="s">
         <v>256</v>
@@ -3941,7 +3939,7 @@
         <v>258</v>
       </c>
       <c r="R8" s="89" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="102"/>
@@ -4008,12 +4006,12 @@
         <v>248</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F10" s="94"/>
       <c r="G10" s="94"/>
       <c r="H10" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I10" s="94" t="s">
         <v>251</v>
@@ -4029,17 +4027,17 @@
         <v>255</v>
       </c>
       <c r="N10" s="94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O10" s="94" t="s">
         <v>257</v>
       </c>
       <c r="P10" s="94"/>
       <c r="Q10" s="94" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="102"/>
@@ -4072,14 +4070,14 @@
         <v>259</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="89" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H12" s="89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I12" s="89" t="s">
         <v>261</v>
@@ -4095,13 +4093,13 @@
         <v>263</v>
       </c>
       <c r="N12" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P12" s="89" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q12" s="89" t="s">
         <v>261</v>
@@ -4173,42 +4171,42 @@
         <v>260</v>
       </c>
       <c r="E14" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="94" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K14" s="94"/>
       <c r="L14" s="94" t="s">
         <v>260</v>
       </c>
       <c r="M14" s="94" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N14" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O14" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="R14" s="94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4239,25 +4237,25 @@
       <c r="C16" s="52"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>264</v>
+        <v>364</v>
       </c>
       <c r="H16" s="89"/>
       <c r="I16" s="89" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J16" s="89"/>
       <c r="K16" s="89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L16" s="89"/>
       <c r="M16" s="89" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N16" s="89"/>
       <c r="O16" s="89" t="s">
@@ -4295,7 +4293,7 @@
         <v>194</v>
       </c>
       <c r="I17" s="99" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J17" s="72" t="s">
         <v>194</v>
@@ -4307,7 +4305,7 @@
         <v>194</v>
       </c>
       <c r="M17" s="99" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N17" s="72" t="s">
         <v>194</v>
@@ -4332,35 +4330,35 @@
       <c r="C18" s="52"/>
       <c r="D18" s="94"/>
       <c r="E18" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="H18" s="94"/>
       <c r="I18" s="94" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L18" s="94"/>
       <c r="M18" s="94" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N18" s="94"/>
       <c r="O18" s="94" t="s">
         <v>257</v>
       </c>
       <c r="P18" s="94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R18" s="94"/>
       <c r="S18" s="58"/>
@@ -4410,10 +4408,10 @@
         <v>258</v>
       </c>
       <c r="K20" s="89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L20" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M20" s="89" t="s">
         <v>261</v>
@@ -4423,13 +4421,13 @@
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R20" s="89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
@@ -4492,7 +4490,7 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E22" s="94" t="s">
         <v>251</v>
@@ -4508,29 +4506,29 @@
         <v>255</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K22" s="94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L22" s="94" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M22" s="94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O22" s="94"/>
       <c r="P22" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="R22" s="94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4560,21 +4558,21 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H24" s="89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I24" s="89"/>
       <c r="J24" s="89" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K24" s="89" t="s">
         <v>250</v>
@@ -4583,13 +4581,13 @@
         <v>254</v>
       </c>
       <c r="M24" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N24" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O24" s="89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P24" s="89" t="s">
         <v>261</v>
@@ -4626,7 +4624,7 @@
         <v>199</v>
       </c>
       <c r="J25" s="100" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K25" s="72" t="s">
         <v>189</v>
@@ -4659,21 +4657,21 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="94" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E26" s="94"/>
       <c r="F26" s="94" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G26" s="94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="94" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I26" s="94"/>
       <c r="J26" s="94" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K26" s="94" t="s">
         <v>251</v>
@@ -4682,19 +4680,19 @@
         <v>255</v>
       </c>
       <c r="M26" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N26" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O26" s="94" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P26" s="94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R26" s="94"/>
       <c r="S26" s="58"/>
@@ -4733,25 +4731,25 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F28" s="89" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H28" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I28" s="89" t="s">
         <v>249</v>
       </c>
       <c r="J28" s="89" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K28" s="89"/>
       <c r="L28" s="89" t="s">
@@ -4765,13 +4763,13 @@
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="R28" s="89" t="s">
         <v>279</v>
-      </c>
-      <c r="R28" s="89" t="s">
-        <v>280</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="1" t="e">
@@ -4802,10 +4800,10 @@
         <v>226</v>
       </c>
       <c r="I29" s="99" t="s">
+        <v>330</v>
+      </c>
+      <c r="J29" s="99" t="s">
         <v>334</v>
-      </c>
-      <c r="J29" s="99" t="s">
-        <v>338</v>
       </c>
       <c r="K29" s="72" t="s">
         <v>174</v>
@@ -4842,29 +4840,29 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H30" s="94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I30" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K30" s="94"/>
       <c r="L30" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M30" s="94" t="s">
         <v>251</v>
@@ -4874,13 +4872,13 @@
       </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q30" s="94" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="R30" s="94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="1" t="s">
@@ -4901,7 +4899,7 @@
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
       <c r="M31" s="79" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N31" s="79"/>
       <c r="O31" s="79"/>
@@ -4915,41 +4913,41 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="89" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="G32" s="89" t="s">
+      <c r="H32" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="89" t="s">
+      <c r="I32" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="I32" s="89" t="s">
-        <v>285</v>
-      </c>
       <c r="J32" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K32" s="89" t="s">
         <v>249</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M32" s="89" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="89"/>
       <c r="Q32" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="R32" s="89" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S32" s="53"/>
       <c r="V32" s="69"/>
@@ -5012,41 +5010,41 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="94" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E34" s="94"/>
       <c r="F34" s="94" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G34" s="94" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J34" s="94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K34" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L34" s="94" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M34" s="94" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N34" s="94"/>
       <c r="O34" s="94"/>
       <c r="P34" s="94"/>
       <c r="Q34" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="R34" s="94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5077,10 +5075,10 @@
       <c r="C36" s="52"/>
       <c r="D36" s="89"/>
       <c r="E36" s="89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G36" s="89"/>
       <c r="H36" s="89"/>
@@ -5096,15 +5094,15 @@
       </c>
       <c r="M36" s="89"/>
       <c r="N36" s="89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O36" s="89"/>
       <c r="P36" s="89" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q36" s="89"/>
       <c r="R36" s="89" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5152,13 +5150,13 @@
         <v>194</v>
       </c>
       <c r="P37" s="99" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q37" s="72" t="s">
         <v>194</v>
       </c>
       <c r="R37" s="99" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="S37" s="54"/>
       <c r="V37" s="69"/>
@@ -5168,16 +5166,16 @@
       <c r="C38" s="52"/>
       <c r="D38" s="94"/>
       <c r="E38" s="94" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G38" s="94"/>
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
       <c r="J38" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K38" s="94" t="s">
         <v>251</v>
@@ -5187,15 +5185,15 @@
       </c>
       <c r="M38" s="94"/>
       <c r="N38" s="94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O38" s="94"/>
       <c r="P38" s="94" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q38" s="94"/>
       <c r="R38" s="94" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5218,7 +5216,7 @@
       <c r="P39" s="79"/>
       <c r="Q39" s="79"/>
       <c r="R39" s="79" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="S39" s="85"/>
       <c r="V39" s="87"/>
@@ -5227,41 +5225,41 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E40" s="89"/>
       <c r="F40" s="89" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G40" s="89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H40" s="89"/>
       <c r="I40" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J40" s="89"/>
       <c r="K40" s="89" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L40" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" s="89" t="s">
         <v>284</v>
-      </c>
-      <c r="M40" s="89" t="s">
-        <v>285</v>
       </c>
       <c r="N40" s="89"/>
       <c r="O40" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P40" s="89" t="s">
         <v>249</v>
       </c>
       <c r="Q40" s="89" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="R40" s="89" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5294,7 +5292,7 @@
         <v>194</v>
       </c>
       <c r="K41" s="99" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L41" s="72" t="s">
         <v>231</v>
@@ -5309,7 +5307,7 @@
         <v>226</v>
       </c>
       <c r="P41" s="99" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q41" s="72" t="s">
         <v>206</v>
@@ -5324,41 +5322,41 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="94" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="94" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G42" s="94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H42" s="94"/>
       <c r="I42" s="94" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J42" s="94"/>
       <c r="K42" s="94" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L42" s="94" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M42" s="94" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N42" s="94"/>
       <c r="O42" s="94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P42" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q42" s="94" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="R42" s="94" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5391,17 +5389,17 @@
       <c r="E44" s="89"/>
       <c r="F44" s="89"/>
       <c r="G44" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I44" s="89"/>
       <c r="J44" s="89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L44" s="89"/>
       <c r="M44" s="89"/>
@@ -5480,23 +5478,23 @@
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
       <c r="G46" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I46" s="94"/>
       <c r="J46" s="94" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K46" s="94" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L46" s="94"/>
       <c r="M46" s="94"/>
       <c r="N46" s="94"/>
       <c r="O46" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P46" s="94" t="s">
         <v>251</v>
@@ -5539,13 +5537,13 @@
         <v>254</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H48" s="89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I48" s="89" t="s">
         <v>261</v>
@@ -5555,25 +5553,25 @@
       </c>
       <c r="K48" s="89"/>
       <c r="L48" s="89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M48" s="89" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N48" s="89" t="s">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="O48" s="89" t="s">
         <v>247</v>
       </c>
       <c r="P48" s="89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q48" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R48" s="89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -5642,41 +5640,41 @@
         <v>255</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H50" s="94" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I50" s="94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J50" s="94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K50" s="94"/>
       <c r="L50" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M50" s="94" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N50" s="94" t="s">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="O50" s="94" t="s">
         <v>248</v>
       </c>
       <c r="P50" s="94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q50" s="94" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="R50" s="94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -5706,13 +5704,13 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E52" s="89" t="s">
         <v>249</v>
       </c>
       <c r="F52" s="89" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G52" s="89"/>
       <c r="H52" s="89" t="s">
@@ -5732,19 +5730,19 @@
         <v>254</v>
       </c>
       <c r="N52" s="89" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O52" s="89" t="s">
         <v>258</v>
       </c>
       <c r="P52" s="89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q52" s="89" t="s">
         <v>259</v>
       </c>
       <c r="R52" s="89" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -5807,17 +5805,17 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F54" s="94" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G54" s="94"/>
       <c r="H54" s="94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I54" s="94" t="s">
         <v>251</v>
@@ -5833,19 +5831,19 @@
         <v>255</v>
       </c>
       <c r="N54" s="94" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O54" s="94" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P54" s="94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q54" s="94" t="s">
         <v>260</v>
       </c>
       <c r="R54" s="94" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -5875,7 +5873,7 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="89" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E56" s="89"/>
       <c r="F56" s="89"/>
@@ -5928,7 +5926,7 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E58" s="94"/>
       <c r="F58" s="94"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經004。妙行無住分第四.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3201CA81-B04F-452E-AD16-957C8A243347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C184A5-0ACB-4D1D-9A2D-D2F0F86AF570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="366">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,231 +1193,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>ㆠㄨˊ</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-  </si>
-  <si>
-    <t>phoo5</t>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>the5</t>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>zun1</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>lam5</t>
-  </si>
-  <si>
-    <t>ㄌㆰˊ</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>un5</t>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>in3</t>
-  </si>
-  <si>
-    <t>ㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>zu7</t>
-  </si>
-  <si>
-    <t>ㄗㄨ˫</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>sing1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-  </si>
-  <si>
-    <t>jiok8</t>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>sat4</t>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-  </si>
-  <si>
-    <t>siong3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>ㄧ˪</t>
-  </si>
-  <si>
-    <t>put4</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-  </si>
-  <si>
-    <t>ia7</t>
-  </si>
-  <si>
-    <t>ㄧㄚ˫</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>ㄏㄧˉ</t>
-  </si>
-  <si>
-    <t>ik8</t>
-  </si>
-  <si>
-    <t>ㄧㆻ˙</t>
-  </si>
-  <si>
-    <t>liong7</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆲ˫</t>
-  </si>
-  <si>
     <t>hiu2</t>
   </si>
   <si>
     <t>可</t>
   </si>
   <si>
-    <t>hing5</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>kho2</t>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>ㆠㄧ˫</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄨˋ</t>
-  </si>
-  <si>
     <t>布</t>
   </si>
   <si>
@@ -1430,42 +1211,12 @@
     <t>德</t>
   </si>
   <si>
-    <t>poo3</t>
-  </si>
-  <si>
-    <t>ㄅㆦ˪</t>
-  </si>
-  <si>
-    <t>si1</t>
-  </si>
-  <si>
-    <t>ㄒㄧˉ</t>
-  </si>
-  <si>
-    <t>hok4</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ</t>
-  </si>
-  <si>
-    <t>tik4</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-  </si>
-  <si>
     <t>色</t>
   </si>
   <si>
     <t>謂</t>
   </si>
   <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>ㄨㄧ˫</t>
-  </si>
-  <si>
     <t>行</t>
   </si>
   <si>
@@ -1478,43 +1229,13 @@
     <t>下</t>
   </si>
   <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>ㄘㄨ˪</t>
-  </si>
-  <si>
-    <t>ha7</t>
-  </si>
-  <si>
-    <t>ㄏㄚ˫</t>
-  </si>
-  <si>
     <t>四</t>
   </si>
   <si>
-    <t>su3</t>
-  </si>
-  <si>
-    <t>ㄙㄨ˪</t>
-  </si>
-  <si>
     <t>聲</t>
   </si>
   <si>
     <t>但</t>
-  </si>
-  <si>
-    <t>tan6</t>
-  </si>
-  <si>
-    <t>ㄉㄢˋ</t>
-  </si>
-  <si>
-    <t>i5</t>
-  </si>
-  <si>
-    <t>ㄧˊ</t>
   </si>
   <si>
     <t>妙行無住分第四
@@ -1565,63 +1286,459 @@
   </si>
   <si>
     <t>biau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄧㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>ciok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄑㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ka3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2631,6 +2748,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2649,9 +2769,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2659,55 +2776,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -3345,7 +3414,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3385,8 +3454,8 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
-        <v>金剛般若波羅蜜經004。妙行無住分第四</v>
+        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000")</f>
+        <v>金剛般若波羅蜜經004</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3409,7 +3478,7 @@
       <c r="B7" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="97">
         <v>4</v>
       </c>
     </row>
@@ -3510,32 +3579,32 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="97" t="s">
-        <v>330</v>
+      <c r="V3" s="98" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
@@ -3546,17 +3615,17 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="98"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>201</v>
@@ -3571,7 +3640,7 @@
         <v>169</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80"/>
@@ -3582,31 +3651,31 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="80"/>
       <c r="S5" s="94"/>
-      <c r="V5" s="98"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
@@ -3617,7 +3686,7 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="98"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -3638,45 +3707,45 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="84" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
       <c r="J8" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -3690,10 +3759,10 @@
         <v>207</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="H9" s="80" t="s">
         <v>206</v>
@@ -3730,45 +3799,45 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="85" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85"/>
       <c r="J10" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="99"/>
     </row>
     <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -3788,53 +3857,53 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="99"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="84" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M12" s="84"/>
       <c r="N12" s="84" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="98"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -3857,16 +3926,16 @@
         <v>167</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="J13" s="80" t="s">
         <v>199</v>
       </c>
       <c r="K13" s="80" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="L13" s="80" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="M13" s="80" t="s">
         <v>171</v>
@@ -3875,7 +3944,7 @@
         <v>188</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="P13" s="80" t="s">
         <v>200</v>
@@ -3884,56 +3953,56 @@
         <v>211</v>
       </c>
       <c r="R13" s="80" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="99"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="85" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="M14" s="85"/>
       <c r="N14" s="85" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="99"/>
     </row>
     <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -3953,47 +4022,47 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="99"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="84" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="L16" s="84"/>
       <c r="M16" s="84" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="P16" s="84"/>
       <c r="Q16" s="84" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -4001,10 +4070,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="F17" s="80" t="s">
         <v>167</v>
@@ -4016,25 +4085,25 @@
         <v>211</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="J17" s="80" t="s">
         <v>195</v>
       </c>
       <c r="K17" s="80" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="L17" s="80" t="s">
         <v>195</v>
       </c>
       <c r="M17" s="80" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
       <c r="N17" s="80" t="s">
         <v>195</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>334</v>
+        <v>241</v>
       </c>
       <c r="P17" s="80" t="s">
         <v>195</v>
@@ -4043,50 +4112,50 @@
         <v>217</v>
       </c>
       <c r="R17" s="80" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="98"/>
+      <c r="V17" s="99"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="J18" s="85"/>
       <c r="K18" s="85" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="L18" s="85"/>
       <c r="M18" s="85" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="P18" s="85"/>
       <c r="Q18" s="85" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="98"/>
+      <c r="V18" s="99"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -4106,51 +4175,51 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="98"/>
+      <c r="V19" s="99"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="I20" s="84"/>
       <c r="J20" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="K20" s="84" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="O20" s="84" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="P20" s="84" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="84"/>
       <c r="R20" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="98"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -4158,7 +4227,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>171</v>
@@ -4191,10 +4260,10 @@
         <v>170</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="P21" s="80" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="Q21" s="80" t="s">
         <v>167</v>
@@ -4203,51 +4272,51 @@
         <v>200</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="98"/>
+      <c r="V21" s="99"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="I22" s="85"/>
       <c r="J22" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="O22" s="85" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="P22" s="85" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="85"/>
       <c r="R22" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -4272,45 +4341,45 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G24" s="84"/>
       <c r="H24" s="84" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="P24" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="84" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -4363,7 +4432,7 @@
         <v>216</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
@@ -4371,45 +4440,45 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="G26" s="85"/>
       <c r="H26" s="85" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="P26" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="85" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -4445,43 +4514,43 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E28" s="84"/>
       <c r="F28" s="84" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="L28" s="84" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="M28" s="84"/>
       <c r="N28" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="84"/>
       <c r="R28" s="84" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -4496,7 +4565,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="E29" s="80" t="s">
         <v>167</v>
@@ -4505,19 +4574,19 @@
         <v>213</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="I29" s="80" t="s">
         <v>200</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="K29" s="80" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>205</v>
@@ -4550,43 +4619,43 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="85"/>
       <c r="R30" s="85" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -4610,7 +4679,7 @@
       <c r="M31" s="83"/>
       <c r="N31" s="83"/>
       <c r="O31" s="83" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="P31" s="83"/>
       <c r="Q31" s="83"/>
@@ -4624,38 +4693,38 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="G32" s="84"/>
       <c r="H32" s="84" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="K32" s="84" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="M32" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="N32" s="84" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="P32" s="84"/>
       <c r="Q32" s="84"/>
@@ -4685,22 +4754,22 @@
         <v>212</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="J33" s="80" t="s">
         <v>220</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="L33" s="80" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="M33" s="80" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="N33" s="80" t="s">
         <v>205</v>
@@ -4723,38 +4792,38 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="G34" s="85"/>
       <c r="H34" s="85" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="N34" s="85" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="P34" s="85"/>
       <c r="Q34" s="85"/>
@@ -4785,37 +4854,37 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="F36" s="84"/>
       <c r="G36" s="84" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84"/>
       <c r="K36" s="84"/>
       <c r="L36" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="N36" s="84" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="O36" s="84"/>
       <c r="P36" s="84" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="Q36" s="84"/>
       <c r="R36" s="84" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -4862,13 +4931,13 @@
         <v>186</v>
       </c>
       <c r="P37" s="80" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="80" t="s">
         <v>195</v>
       </c>
       <c r="R37" s="80" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -4876,37 +4945,37 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="E38" s="85" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="F38" s="85"/>
       <c r="G38" s="85" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="I38" s="85"/>
       <c r="J38" s="85"/>
       <c r="K38" s="85"/>
       <c r="L38" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="N38" s="85" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="O38" s="85"/>
       <c r="P38" s="85" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="Q38" s="85"/>
       <c r="R38" s="85" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -4935,38 +5004,38 @@
       <c r="B40" s="56"/>
       <c r="D40" s="84"/>
       <c r="E40" s="84" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G40" s="84"/>
       <c r="H40" s="84" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L40" s="84"/>
       <c r="M40" s="84" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="N40" s="84" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="O40" s="84" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="P40" s="84"/>
       <c r="Q40" s="84" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="R40" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="S40" s="93"/>
       <c r="V40" s="60"/>
@@ -4980,46 +5049,46 @@
         <v>195</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>195</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>342</v>
+        <v>249</v>
       </c>
       <c r="J41" s="80" t="s">
         <v>195</v>
       </c>
       <c r="K41" s="80" t="s">
-        <v>343</v>
+        <v>250</v>
       </c>
       <c r="L41" s="80" t="s">
         <v>195</v>
       </c>
       <c r="M41" s="80" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="N41" s="80" t="s">
         <v>220</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="P41" s="80" t="s">
         <v>167</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="R41" s="80" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="S41" s="94"/>
       <c r="V41" s="60"/>
@@ -5028,38 +5097,38 @@
       <c r="B42" s="58"/>
       <c r="D42" s="85"/>
       <c r="E42" s="85" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="G42" s="85"/>
       <c r="H42" s="85" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L42" s="85"/>
       <c r="M42" s="85" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="N42" s="85" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="O42" s="85" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="P42" s="85"/>
       <c r="Q42" s="85" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="R42" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="S42" s="96"/>
       <c r="V42" s="60"/>
@@ -5069,7 +5138,7 @@
       <c r="C43" s="90"/>
       <c r="D43" s="83"/>
       <c r="E43" s="83" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="F43" s="83"/>
       <c r="G43" s="83"/>
@@ -5089,35 +5158,35 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="F44" s="84"/>
       <c r="G44" s="84"/>
       <c r="H44" s="84"/>
       <c r="I44" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="J44" s="84" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="K44" s="84"/>
       <c r="L44" s="84" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="M44" s="84" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="N44" s="84"/>
       <c r="O44" s="84"/>
       <c r="P44" s="84"/>
       <c r="Q44" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="R44" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="S44" s="93"/>
       <c r="V44" s="60"/>
@@ -5178,35 +5247,35 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="F46" s="85"/>
       <c r="G46" s="85"/>
       <c r="H46" s="85"/>
       <c r="I46" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="J46" s="85" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="K46" s="85"/>
       <c r="L46" s="85" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="M46" s="85" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="N46" s="85"/>
       <c r="O46" s="85"/>
       <c r="P46" s="85"/>
       <c r="Q46" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="R46" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="S46" s="96"/>
       <c r="V46" s="60"/>
@@ -5234,45 +5303,45 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="E48" s="84"/>
       <c r="F48" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="K48" s="84" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="L48" s="84" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M48" s="84"/>
       <c r="N48" s="84" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="P48" s="84" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="Q48" s="84" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="R48" s="84" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="S48" s="93"/>
       <c r="V48" s="60"/>
@@ -5304,25 +5373,25 @@
         <v>216</v>
       </c>
       <c r="K49" s="80" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="L49" s="80" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="M49" s="80" t="s">
         <v>167</v>
       </c>
       <c r="N49" s="80" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="P49" s="80" t="s">
         <v>204</v>
       </c>
       <c r="Q49" s="80" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="R49" s="80" t="s">
         <v>214</v>
@@ -5333,45 +5402,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="E50" s="85"/>
       <c r="F50" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="H50" s="85" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="K50" s="85" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="L50" s="85" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="M50" s="85"/>
       <c r="N50" s="85" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="P50" s="85" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="85" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="R50" s="85" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="S50" s="96"/>
       <c r="V50" s="60"/>
@@ -5399,45 +5468,45 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="H52" s="84" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="I52" s="84"/>
       <c r="J52" s="84" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="L52" s="84" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="M52" s="84"/>
       <c r="N52" s="84" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="R52" s="84" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="S52" s="93"/>
       <c r="V52" s="60"/>
@@ -5454,10 +5523,10 @@
         <v>200</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="G53" s="81" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="H53" s="81" t="s">
         <v>205</v>
@@ -5484,7 +5553,7 @@
         <v>215</v>
       </c>
       <c r="P53" s="80" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="Q53" s="80" t="s">
         <v>203</v>
@@ -5498,45 +5567,45 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="H54" s="85" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="I54" s="85"/>
       <c r="J54" s="85" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="L54" s="85" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="R54" s="85" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="S54" s="96"/>
       <c r="V54" s="60"/>
@@ -5564,13 +5633,13 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G56" s="84"/>
       <c r="H56" s="84"/>
@@ -5596,7 +5665,7 @@
         <v>188</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>344</v>
+        <v>251</v>
       </c>
       <c r="F57" s="80" t="s">
         <v>211</v>
@@ -5623,13 +5692,13 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G58" s="85"/>
       <c r="H58" s="85"/>
@@ -9394,26 +9463,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="13" priority="363">
+    <cfRule type="expression" dxfId="9" priority="363">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="364">
+    <cfRule type="expression" dxfId="8" priority="364">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D23:R23 D31:R31 D39:R39 D47:R47 D51:R51 D59:R59 D63:R63 D67:R67 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D19:R19 D27:R27 D35:R35 D43:R43 D55:R55 D71:R71">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D19:R19 D23:R23 D27:R27 D31:R31 D35:R35 D39:R39 D43:R43 D47:R47 D51:R51 D55:R55 D59:R59 D63:R63 D67:R67 D71:R71 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9495,7 +9564,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9513,7 +9582,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9538,7 +9607,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -9558,7 +9627,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -9580,7 +9649,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9596,7 +9665,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9618,7 +9687,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9634,7 +9703,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="101"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9656,7 +9725,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9672,7 +9741,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9694,7 +9763,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9710,7 +9779,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9733,7 +9802,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9751,7 +9820,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9775,7 +9844,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9795,7 +9864,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9884,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9829,7 +9898,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9849,7 +9918,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9863,7 +9932,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9883,7 +9952,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9897,7 +9966,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9917,7 +9986,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -9931,7 +10000,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="102"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
